--- a/pred_ohlcv/54_21/2019-11-13 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 ABT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>68503.81662028986</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>68878.0099657111</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>45870.8628657111</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>45870.8628657111</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>42105.7695657111</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>43409.8726657111</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>42912.99976571109</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>42950.4529657111</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>42686.6649657111</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>35579.9483657111</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>55713.22036571109</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>66553.8340657111</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>66553.8340657111</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>77523.6649657111</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>78273.6649657111</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>78273.6649657111</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>48895.4748657111</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>47370.1120657111</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>48943.6064657111</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-149423.9558693752</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-150648.6912693752</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-157513.8412693752</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-157046.9132693752</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-149934.1838693752</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-96783.9474693752</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-113758.2793693752</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-113758.2793693752</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-112008.2793693752</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-112285.8870693752</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-112145.8870693752</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-111927.8870693752</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-111927.8870693752</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-113677.8870693752</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-113427.8870693752</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-112138.2052693752</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-113201.2052693752</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-113095.2074693752</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-113095.3823693752</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-111011.1889693752</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-111151.4891693752</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-111290.2531693752</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-111290.2531693752</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-111663.1234693752</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-117131.8186693752</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-115756.3415693752</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-118656.3415693752</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-116270.3415693752</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-94350.84059735888</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-13 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 ABT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>68503.81662028986</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>68878.0099657111</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>45870.8628657111</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>45870.8628657111</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>42105.7695657111</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>43409.8726657111</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>42912.99976571109</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>42950.4529657111</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>35579.9483657111</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -834,7 +834,7 @@
         <v>78273.6649657111</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>48895.4748657111</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>47370.1120657111</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-149423.9558693752</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-149423.9558693752</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-151520.7918693752</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-150648.6912693752</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-157513.8412693752</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-157046.9132693752</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-149934.1838693752</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-148684.1838693752</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-148800.5534693752</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-143867.5534693752</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-144961.8850693752</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-144961.8850693752</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-113717.8850693752</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-96783.9474693752</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-113758.2793693752</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-113758.2793693752</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-112008.2793693752</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-112285.8870693752</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-112145.8870693752</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-111927.8870693752</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-111927.8870693752</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-113677.8870693752</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-113427.8870693752</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-112138.2052693752</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-113201.2052693752</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-113095.2074693752</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-113095.3823693752</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-111011.1889693752</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-111151.4891693752</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-111290.2531693752</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-111290.2531693752</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-111663.1234693752</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-117131.8186693752</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-115756.3415693752</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-118656.3415693752</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-116270.3415693752</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-94350.84059735888</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
